--- a/output_get_data.xlsx
+++ b/output_get_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>owner_id</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -475,6 +480,11 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'email': 'admin@gmail.com', 'id': 2, 'username': 'admin'}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -496,6 +506,11 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'email': 'admin@gmail.com', 'id': 2, 'username': 'admin'}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -517,6 +532,11 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -537,6 +557,11 @@
       </c>
       <c r="E5" t="n">
         <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -559,6 +584,11 @@
       <c r="E6" t="n">
         <v>3</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -580,6 +610,11 @@
       <c r="E7" t="n">
         <v>3</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -601,6 +636,11 @@
       <c r="E8" t="n">
         <v>3</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -622,6 +662,11 @@
       <c r="E9" t="n">
         <v>3</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -643,6 +688,11 @@
       <c r="E10" t="n">
         <v>3</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -664,6 +714,11 @@
       <c r="E11" t="n">
         <v>3</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -685,6 +740,11 @@
       <c r="E12" t="n">
         <v>3</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -706,6 +766,11 @@
       <c r="E13" t="n">
         <v>3</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -727,6 +792,11 @@
       <c r="E14" t="n">
         <v>3</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -744,6 +814,11 @@
       <c r="E15" t="n">
         <v>3</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -757,6 +832,11 @@
       <c r="E16" t="n">
         <v>3</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -777,6 +857,11 @@
       </c>
       <c r="E17" t="n">
         <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output_get_data.xlsx
+++ b/output_get_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>owner_id</t>
@@ -456,7 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
         </is>
       </c>
     </row>
@@ -464,17 +469,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asdqwwqwd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>adnqwmdmwq;</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>asdqwwqwd</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -482,7 +487,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'email': 'admin@gmail.com', 'id': 2, 'username': 'admin'}</t>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
         </is>
       </c>
     </row>
@@ -490,17 +500,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdqwwqwd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>adnqwmdmwq;</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>asdqwwqwd</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -508,7 +518,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'email': 'admin@gmail.com', 'id': 2, 'username': 'admin'}</t>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
         </is>
       </c>
     </row>
@@ -516,25 +531,30 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdqwwqwd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>adnqwmdmwq;</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>asdqwwqwd</t>
-        </is>
-      </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -542,25 +562,30 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asdqwwqwd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>adnqwmdmwq;</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asdqwwqwd</t>
-        </is>
-      </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -568,25 +593,30 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asdqwwqwd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>adnqwmdmwq;</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>asdqwwqwd</t>
-        </is>
-      </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -594,25 +624,30 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>awdww</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>dwqdqwdw;</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>awdww</t>
-        </is>
-      </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -620,25 +655,30 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>awdww</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>dwqdqwdw;</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>awdww</t>
-        </is>
-      </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -646,25 +686,30 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>awdww</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>dwqdqwdw;</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>awdww</t>
-        </is>
-      </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -672,25 +717,30 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>awdww</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>dwqdqwdw;</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>awdww</t>
-        </is>
-      </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -698,25 +748,30 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>asdqwddsvwemclsa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>dwqdqwd;</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>asdqwddsvwemclsa</t>
-        </is>
-      </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -724,25 +779,30 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>asdqwddsvwemclsa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>dwqdqwd;</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>asdqwddsvwemclsa</t>
-        </is>
-      </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -750,25 +810,30 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>asdqwddsvwemclsa</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>dwqdqwd;</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>asdqwddsvwemclsa</t>
-        </is>
-      </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -776,25 +841,30 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Еуфвй</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>вфывйцвйц;</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Еуфвй</t>
-        </is>
-      </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -802,21 +872,26 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>18</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Еуфвй</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -824,17 +899,22 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>19</v>
       </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
         </is>
       </c>
     </row>
@@ -842,25 +922,123 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test title</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve"> Hello World!</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Test title</t>
-        </is>
-      </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'email': 'user1@gmail.com', 'id': 3, 'username': 'user'}</t>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test titledqqd</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello Worlddasd!</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test titledqqd</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello Worlddasd!</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test titledqqd</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello Worlddasd!</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
         </is>
       </c>
     </row>
